--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2858.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2858.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189148824452143</v>
+        <v>1.315672755241394</v>
       </c>
       <c r="B1">
-        <v>2.281368881374148</v>
+        <v>1.478198528289795</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.792777299880981</v>
       </c>
       <c r="D1">
-        <v>2.325729573806894</v>
+        <v>3.434493780136108</v>
       </c>
       <c r="E1">
-        <v>1.215237734267697</v>
+        <v>1.026684403419495</v>
       </c>
     </row>
   </sheetData>
